--- a/Pariticipants Info.xlsx
+++ b/Pariticipants Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\RPS\NEC Spring Microservice 5 days\NEC Batch-3 12-02-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B278AB3-48DC-42EE-80BE-4D5F32586828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F52885-0928-4DAA-ABC1-791E3E453D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -579,6 +579,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -620,7 +631,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -657,14 +667,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:H43"/>
+  <dimension ref="D7:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -965,7 +976,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="15" thickBot="1">
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1089,13 +1100,13 @@
       </c>
     </row>
     <row r="15" spans="4:8" ht="15" thickBot="1">
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>7</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -1174,13 +1185,13 @@
       </c>
     </row>
     <row r="20" spans="4:8" ht="15" thickBot="1">
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>12</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="10" t="s">
@@ -1452,7 +1463,7 @@
       <c r="E36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>88</v>
       </c>
       <c r="G36" s="11" t="s">
@@ -1469,7 +1480,7 @@
       <c r="E37" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="11" t="s">
         <v>26</v>
       </c>
@@ -1484,7 +1495,7 @@
       <c r="E38" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="11" t="s">
         <v>41</v>
       </c>
@@ -1500,8 +1511,8 @@
         <v>92</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="4:8">
       <c r="D40" s="9">
@@ -1526,10 +1537,10 @@
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="4:8">
-      <c r="D42" s="12">
+      <c r="D42" s="9">
         <v>34</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F42" s="9"/>
@@ -1546,6 +1557,10 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="4:8">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1589,7 +1604,7 @@
   <dimension ref="C5:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1601,90 +1616,90 @@
   <sheetData>
     <row r="5" spans="3:5" ht="15" thickBot="1"/>
     <row r="6" spans="3:5" ht="18" thickBot="1">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="27" thickBot="1">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="40.200000000000003" thickBot="1">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="15" thickBot="1">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="40.200000000000003" thickBot="1">
-      <c r="C10" s="24" t="s">
+    <row r="10" spans="3:5" ht="27" thickBot="1">
+      <c r="C10" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="40.200000000000003" thickBot="1">
-      <c r="C11" s="24"/>
-      <c r="D11" s="20" t="s">
+    <row r="11" spans="3:5" ht="27" thickBot="1">
+      <c r="C11" s="23"/>
+      <c r="D11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="40.200000000000003" thickBot="1">
-      <c r="C12" s="26"/>
-      <c r="D12" s="20" t="s">
+    <row r="12" spans="3:5" ht="27" thickBot="1">
+      <c r="C12" s="25"/>
+      <c r="D12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="39.6">
+    <row r="13" spans="3:5" ht="26.4">
       <c r="C13" s="27"/>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="27" thickBot="1">
-      <c r="C14" s="29"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="19" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="30"/>
